--- a/medicine/Psychotrope/Marc_de_café/Marc_de_café.xlsx
+++ b/medicine/Psychotrope/Marc_de_café/Marc_de_café.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marc_de_caf%C3%A9</t>
+          <t>Marc_de_café</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le marc de café est le résidu de la percolation du café, et par extension d'autres produits. Il est notamment utilisé en jardinage comme engrais ou répulsif.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marc_de_caf%C3%A9</t>
+          <t>Marc_de_café</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La composition moyenne du marc est la suivante[1] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La composition moyenne du marc est la suivante : 
 220 kg de matière organique au mètre cube.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marc_de_caf%C3%A9</t>
+          <t>Marc_de_café</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +557,13 @@
           <t>Utilisation pour le jardinage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le rapport carbone/azote (C/N) de 24 fait du marc un composant équilibré, directement compostable, qui en raison de son rapport C/N, libère de façon progressive l'azote, le phosphore et le potassium, composés de base des engrais, en particulier utiles pour la croissance des jeunes plants[2].
-Une étude récente[3] tendrait à démontrer que le marc de café frais et même composté serait toxique pour les plants de tomates. À forte dose, par exemple pur, il pourrait même servir d'herbicide bio. Dans son article, Nick F. Lolonis[4] n'a pas clairement identifié la source responsable de cette action. Il a seulement été en mesure de conclure que ce n'était ni la caféine, ni le pH du marc de café.
-Une étude japonaise de 2014 indique qu'il faut un minimum de 9 mois de compostage avant de pouvoir utiliser le marc au jardin et que son pouvoir anti-germinatif sur certaines espèces serait lié à sa teneur en acide chlorogénique (permettant naturellement aux graines de café d'inhiber les pousses concurrentes[5]) mais aussi que « L'utilisation agricole du marc de café a également été discutée en termes de périodes de jachère dans la rotation des cultures »[6].
-Activateur de compost
-Dans un lombricomposteur ou un composteur, les vers de terre sont friands du marc de café, qui les aide à digérer la matière organique du tas de compost. Leur sensibilité à la caféine augmente leur activité pour la transformation des végétaux en compost[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rapport carbone/azote (C/N) de 24 fait du marc un composant équilibré, directement compostable, qui en raison de son rapport C/N, libère de façon progressive l'azote, le phosphore et le potassium, composés de base des engrais, en particulier utiles pour la croissance des jeunes plants.
+Une étude récente tendrait à démontrer que le marc de café frais et même composté serait toxique pour les plants de tomates. À forte dose, par exemple pur, il pourrait même servir d'herbicide bio. Dans son article, Nick F. Lolonis n'a pas clairement identifié la source responsable de cette action. Il a seulement été en mesure de conclure que ce n'était ni la caféine, ni le pH du marc de café.
+Une étude japonaise de 2014 indique qu'il faut un minimum de 9 mois de compostage avant de pouvoir utiliser le marc au jardin et que son pouvoir anti-germinatif sur certaines espèces serait lié à sa teneur en acide chlorogénique (permettant naturellement aux graines de café d'inhiber les pousses concurrentes) mais aussi que « L'utilisation agricole du marc de café a également été discutée en termes de périodes de jachère dans la rotation des cultures ».
 </t>
         </is>
       </c>
@@ -560,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marc_de_caf%C3%A9</t>
+          <t>Marc_de_café</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,22 +589,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Usages divers</t>
+          <t>Utilisation pour le jardinage</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Le marc de café peut être utilisé :
-comme un colorant naturel[7].
-comme exfoliant pour la peau (pour le visage et le corps)[7].
-comme répulsif à fourmis[8] (bonne efficacité peu durable dans le temps).
-comme répulsif à limaces[9] (bonne efficacité si sec, inefficace si mouillé)
-comme combustible (biomasse-énergie); en poudre ou sous forme de bûchettes de chauffage reconstituées avec de la sciure de bois et du marc de café compressés (sans aucun additifs ni liants).
-comme compost pour la culture du champignon[10] (myciculture). Un projet d'agriculture urbaine et commercialisation de la myciculture à base du marc de café, nommé PermaFungi, a gagné le neuvième « Grand Prix des Générations Futures » (néerlandais :  Grote Prijs voor Toekomstige Generaties) en Belgique, en 2016[11].
-pour nettoyer sa plomberie[12]. Les grains du marc de café se fixent aux parois des plomberies, ce qui permet de les nettoyer en douceur sans produits chimiques agressifs[13].
-comme  « biocarburant »[14].
-il est aussi utilisé en divination (cafédomancie).
-absorbeur de mauvaises odeurs [15]</t>
+          <t>Activateur de compost</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans un lombricomposteur ou un composteur, les vers de terre sont friands du marc de café, qui les aide à digérer la matière organique du tas de compost. Leur sensibilité à la caféine augmente leur activité pour la transformation des végétaux en compost.
+</t>
         </is>
       </c>
     </row>
@@ -600,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Marc_de_caf%C3%A9</t>
+          <t>Marc_de_café</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,13 +626,57 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Usages divers</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le marc de café peut être utilisé :
+comme un colorant naturel.
+comme exfoliant pour la peau (pour le visage et le corps).
+comme répulsif à fourmis (bonne efficacité peu durable dans le temps).
+comme répulsif à limaces (bonne efficacité si sec, inefficace si mouillé)
+comme combustible (biomasse-énergie); en poudre ou sous forme de bûchettes de chauffage reconstituées avec de la sciure de bois et du marc de café compressés (sans aucun additifs ni liants).
+comme compost pour la culture du champignon (myciculture). Un projet d'agriculture urbaine et commercialisation de la myciculture à base du marc de café, nommé PermaFungi, a gagné le neuvième « Grand Prix des Générations Futures » (néerlandais :  Grote Prijs voor Toekomstige Generaties) en Belgique, en 2016.
+pour nettoyer sa plomberie. Les grains du marc de café se fixent aux parois des plomberies, ce qui permet de les nettoyer en douceur sans produits chimiques agressifs.
+comme  « biocarburant ».
+il est aussi utilisé en divination (cafédomancie).
+absorbeur de mauvaises odeurs </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marc_de_café</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_de_caf%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Risques toxiques chez l'homme et les mammifères ?</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ingestion de marc de café chez l'humain peut entraîner à haute dose une intoxication à la caféine, certaines personnes en consommant bien que le goût ne prête pas à une telle consommation directe[réf. souhaitée].
-Il serait toxique pour les chiens[16].
+Il serait toxique pour les chiens.
 </t>
         </is>
       </c>
